--- a/aaa.xlsx
+++ b/aaa.xlsx
@@ -1080,12 +1080,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.68 (0.05)</t>
+          <t>0.68 (0.04)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.86 (0.01)</t>
+          <t>0.87 (0.02)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.84 (0.03)</t>
+          <t>0.85 (0.03)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
